--- a/AutomationPractice-MayorgaAndrea.xlsx
+++ b/AutomationPractice-MayorgaAndrea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\TESTING - TRELEW\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51422959-579D-45D6-AD6E-0CFE131BFBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9627BE31-59E7-49FE-BC1F-00CD8E465FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-110" windowWidth="18260" windowHeight="11020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,9 +310,6 @@
     <t>BR-RU-01</t>
   </si>
   <si>
-    <t>REGISTER-New user</t>
-  </si>
-  <si>
     <t>Andrea Mayorga</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>Acount created</t>
+  </si>
+  <si>
+    <t>Invalid email registered</t>
   </si>
 </sst>
 </file>
@@ -823,6 +823,42 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -871,38 +907,26 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -912,30 +936,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1369,60 +1369,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
@@ -1839,7 +1839,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1850,194 +1850,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
-    </row>
-    <row r="2" spans="1:3" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="52" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+    </row>
+    <row r="2" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="26" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="48"/>
+      <c r="B5" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="37" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="49"/>
+      <c r="B6" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="20">
+        <v>44503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="38"/>
-      <c r="B6" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="39">
-        <v>44503</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="42" t="s">
+    <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="51"/>
+      <c r="B8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="170.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="52"/>
+      <c r="B9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="43"/>
-      <c r="B8" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="170.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="44"/>
-      <c r="B9" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="42"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="37" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="48"/>
+      <c r="B11" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="37" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="49"/>
+      <c r="B12" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="38"/>
-      <c r="B12" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="37" t="s">
+    <row r="13" spans="1:3" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="42" t="s">
+    <row r="14" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="51"/>
+      <c r="B14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="43"/>
-      <c r="B14" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="42" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="51"/>
+      <c r="B15" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="43"/>
-      <c r="B15" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="38"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="25" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
